--- a/test-data/accounttestdata.xlsx
+++ b/test-data/accounttestdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nazrinasari/Documents/automation/playwright2/test-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3491ECD-2154-A14F-8CE5-198786D68A4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDA0358F-347E-C640-99A3-F6A8A78FAC5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -103,14 +103,13 @@
     <t>Not for fun address</t>
   </si>
   <si>
-    <t>Yishun Singapore
-								20241212</t>
-  </si>
-  <si>
     <t>Singapore</t>
   </si>
   <si>
     <t>124309876</t>
+  </si>
+  <si>
+    <t>Yishun Singapore 20241212</t>
   </si>
 </sst>
 </file>
@@ -163,10 +162,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -509,8 +511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -519,6 +521,7 @@
     <col min="3" max="3" width="25.33203125" customWidth="1"/>
     <col min="5" max="6" width="23" customWidth="1"/>
     <col min="8" max="8" width="23.5" customWidth="1"/>
+    <col min="14" max="14" width="24.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
@@ -571,7 +574,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -611,17 +614,17 @@
       <c r="M2" t="s">
         <v>26</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" t="s">
         <v>27</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>28</v>
       </c>
-      <c r="P2" t="s">
-        <v>29</v>
-      </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -661,17 +664,17 @@
       <c r="M3" t="s">
         <v>26</v>
       </c>
-      <c r="N3" t="s">
+      <c r="N3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O3" t="s">
         <v>27</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>28</v>
       </c>
-      <c r="P3" t="s">
-        <v>29</v>
-      </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -711,14 +714,14 @@
       <c r="M4" t="s">
         <v>26</v>
       </c>
-      <c r="N4" t="s">
+      <c r="N4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O4" t="s">
         <v>27</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>28</v>
-      </c>
-      <c r="P4" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/test-data/accounttestdata.xlsx
+++ b/test-data/accounttestdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nazrinasari/Documents/automation/playwright2/test-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6283944-A45D-7C4A-ABE8-7190ADEB985A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2153A1D0-B2EA-A049-850D-1FB8BE176E20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="32">
   <si>
     <t>Environment</t>
   </si>
@@ -110,6 +110,12 @@
   </si>
   <si>
     <t>Yishun Singapore 20241212</t>
+  </si>
+  <si>
+    <t>https://staging.automationexercise.com/</t>
+  </si>
+  <si>
+    <t>https://prod.automationexercise.com/</t>
   </si>
 </sst>
 </file>
@@ -511,8 +517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -574,7 +580,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="51" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -624,12 +630,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="51" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
@@ -674,12 +680,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="51" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>1</v>
+      <c r="B4" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="C4" t="s">
         <v>1</v>
@@ -728,6 +734,8 @@
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{F84E1EAF-0AE8-A247-930E-8E73F11416A4}"/>
     <hyperlink ref="C2" r:id="rId2" xr:uid="{403A3E1A-76B9-0745-84B2-E23D72C9F504}"/>
+    <hyperlink ref="B3" r:id="rId3" xr:uid="{F34729A2-0E8E-6249-A8D9-424903279800}"/>
+    <hyperlink ref="B4" r:id="rId4" xr:uid="{7609F25A-C9B9-AE46-B324-AF206A9EDE1D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/test-data/accounttestdata.xlsx
+++ b/test-data/accounttestdata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nazrinasari/Documents/automation/playwright2/test-data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Automation Project\playwright2\test-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2153A1D0-B2EA-A049-850D-1FB8BE176E20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEEDD9DD-288E-4907-9845-F3D11C3865CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="47">
   <si>
     <t>Environment</t>
   </si>
@@ -116,6 +116,51 @@
   </si>
   <si>
     <t>https://prod.automationexercise.com/</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>test33@test.com</t>
+  </si>
+  <si>
+    <t>test33</t>
+  </si>
+  <si>
+    <t>first last</t>
+  </si>
+  <si>
+    <t>address1</t>
+  </si>
+  <si>
+    <t>address2</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>city state 11111</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>test44@test.com</t>
+  </si>
+  <si>
+    <t>test44</t>
+  </si>
+  <si>
+    <t>test555@test.com</t>
+  </si>
+  <si>
+    <t>test555</t>
+  </si>
+  <si>
+    <t>test6666@test.com</t>
+  </si>
+  <si>
+    <t>test6666</t>
   </si>
 </sst>
 </file>
@@ -515,22 +560,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="35.33203125" customWidth="1"/>
-    <col min="3" max="3" width="25.33203125" customWidth="1"/>
-    <col min="5" max="6" width="23" customWidth="1"/>
-    <col min="8" max="8" width="23.5" customWidth="1"/>
-    <col min="14" max="14" width="24.1640625" customWidth="1"/>
+    <col min="3" max="4" width="25.33203125" customWidth="1"/>
+    <col min="6" max="7" width="23" customWidth="1"/>
+    <col min="9" max="9" width="23.5" customWidth="1"/>
+    <col min="15" max="15" width="24.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -538,49 +583,52 @@
         <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -590,143 +638,358 @@
       <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>15</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>444444444444444</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>111</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>12</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>2030</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>23</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>24</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>25</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>27</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>444444444444444</v>
+      </c>
+      <c r="H3">
+        <v>111</v>
+      </c>
+      <c r="I3">
+        <v>12</v>
+      </c>
+      <c r="J3">
+        <v>2030</v>
+      </c>
+      <c r="K3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M3" t="s">
+        <v>36</v>
+      </c>
+      <c r="N3" t="s">
+        <v>37</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="P3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q3">
+        <v>111111111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>444444444444444</v>
+      </c>
+      <c r="H4">
+        <v>111</v>
+      </c>
+      <c r="I4">
+        <v>12</v>
+      </c>
+      <c r="J4">
+        <v>2030</v>
+      </c>
+      <c r="K4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M4" t="s">
+        <v>36</v>
+      </c>
+      <c r="N4" t="s">
+        <v>37</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="P4" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q4">
+        <v>111111111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>444444444444444</v>
+      </c>
+      <c r="H5">
+        <v>111</v>
+      </c>
+      <c r="I5">
+        <v>12</v>
+      </c>
+      <c r="J5">
+        <v>2030</v>
+      </c>
+      <c r="K5" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M5" t="s">
+        <v>36</v>
+      </c>
+      <c r="N5" t="s">
+        <v>37</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="P5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q5">
+        <v>111111111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>444444444444444</v>
+      </c>
+      <c r="H6">
+        <v>111</v>
+      </c>
+      <c r="I6">
+        <v>12</v>
+      </c>
+      <c r="J6">
+        <v>2030</v>
+      </c>
+      <c r="K6" t="s">
+        <v>35</v>
+      </c>
+      <c r="L6" t="s">
+        <v>38</v>
+      </c>
+      <c r="M6" t="s">
+        <v>36</v>
+      </c>
+      <c r="N6" t="s">
+        <v>37</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="P6" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q6">
+        <v>111111111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3">
+      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7">
         <v>444444444444444</v>
       </c>
-      <c r="G3">
+      <c r="H7">
         <v>111</v>
       </c>
-      <c r="H3">
+      <c r="I7">
         <v>12</v>
       </c>
-      <c r="I3">
+      <c r="J7">
         <v>2030</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K7" t="s">
         <v>23</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L7" t="s">
         <v>24</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M7" t="s">
         <v>25</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N7" t="s">
         <v>26</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="O7" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P7" t="s">
         <v>27</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4">
+      <c r="C8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8">
         <v>444444444444444</v>
       </c>
-      <c r="G4">
+      <c r="H8">
         <v>111</v>
       </c>
-      <c r="H4">
+      <c r="I8">
         <v>12</v>
       </c>
-      <c r="I4">
+      <c r="J8">
         <v>2030</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K8" t="s">
         <v>23</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L8" t="s">
         <v>24</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M8" t="s">
         <v>25</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N8" t="s">
         <v>26</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="O8" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P8" t="s">
         <v>27</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q8" t="s">
         <v>28</v>
       </c>
     </row>
@@ -734,8 +997,21 @@
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{F84E1EAF-0AE8-A247-930E-8E73F11416A4}"/>
     <hyperlink ref="C2" r:id="rId2" xr:uid="{403A3E1A-76B9-0745-84B2-E23D72C9F504}"/>
-    <hyperlink ref="B3" r:id="rId3" xr:uid="{F34729A2-0E8E-6249-A8D9-424903279800}"/>
-    <hyperlink ref="B4" r:id="rId4" xr:uid="{7609F25A-C9B9-AE46-B324-AF206A9EDE1D}"/>
+    <hyperlink ref="B7" r:id="rId3" xr:uid="{F34729A2-0E8E-6249-A8D9-424903279800}"/>
+    <hyperlink ref="B8" r:id="rId4" xr:uid="{7609F25A-C9B9-AE46-B324-AF206A9EDE1D}"/>
+    <hyperlink ref="D2" r:id="rId5" xr:uid="{A1284CAD-F7E0-4A8E-9820-EAD96DC45047}"/>
+    <hyperlink ref="B3" r:id="rId6" xr:uid="{99D8DA8E-76C9-4D0F-A326-B00CFD326716}"/>
+    <hyperlink ref="C3" r:id="rId7" xr:uid="{DF4A9F4A-E043-4F39-A0B1-C35C99790AAE}"/>
+    <hyperlink ref="D3" r:id="rId8" display="automation-assessment@bro.com" xr:uid="{9041D624-39CD-474E-85B7-289C4CF849A2}"/>
+    <hyperlink ref="B4" r:id="rId9" xr:uid="{E9FF4220-C651-4504-84A4-2A3E7ACF2985}"/>
+    <hyperlink ref="C4" r:id="rId10" xr:uid="{45CC05DB-83ED-4668-A3BB-CFE094589055}"/>
+    <hyperlink ref="D4" r:id="rId11" display="automation-assessment@bro.com" xr:uid="{5C80BDE8-85B0-413A-B905-1A2C8114EF60}"/>
+    <hyperlink ref="B5" r:id="rId12" xr:uid="{D1AD7EDD-AB5E-497C-9F7D-CC35C7F0B509}"/>
+    <hyperlink ref="C5" r:id="rId13" xr:uid="{FD5A6FDD-18B5-43D2-B697-73EEF289F9E0}"/>
+    <hyperlink ref="D5" r:id="rId14" display="automation-assessment@bro.com" xr:uid="{F4CA3BFE-8059-400F-A0DD-2BC364853852}"/>
+    <hyperlink ref="B6" r:id="rId15" xr:uid="{F1DB5086-A16C-4BFD-9147-F2C3CA22ED14}"/>
+    <hyperlink ref="C6" r:id="rId16" xr:uid="{F358637A-5576-43E6-984D-A51F0F14F796}"/>
+    <hyperlink ref="D6" r:id="rId17" display="automation-assessment@bro.com" xr:uid="{2BBB3DDF-974E-43E5-B984-A23D9062EF85}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
